--- a/Test_text.xlsx
+++ b/Test_text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bidhanbashyal/MSU/Research/CLassMLF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402DA8B-78E4-0246-95A6-EE9522EA6AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325AF65F-18ED-1341-9061-10C2F1BF4DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32800" yWindow="2220" windowWidth="28040" windowHeight="17440" xr2:uid="{A1B29AF7-6564-DE4F-B737-6966EDD861D6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Warning to Parents: “Think Twice Before You Vaccinate Your Kids</t>
   </si>
   <si>
-    <t>cor_label</t>
+    <t>multi_label</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
